--- a/HT1080-2xGOT-KO_characterization/HT1080-GOT-DKO_Asp-depl.-timecourse/merged_GOT-DKO.xlsx
+++ b/HT1080-2xGOT-KO_characterization/HT1080-GOT-DKO_Asp-depl.-timecourse/merged_GOT-DKO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Desktop/HT1080-GOT-DKO_Asp-depl.-timecourse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/HT1080-2xGOT-KO_characterization/HT1080-GOT-DKO_Asp-depl.-timecourse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CE26CD-CB37-054C-88AA-EE8105EC2702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96052EC-6C5D-7843-B626-BCF14B5CC41A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="460" windowWidth="25500" windowHeight="11000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Sample ID</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Transfer for 1.5 uL</t>
+  </si>
+  <si>
+    <t>Actually, transferred 617 uL</t>
   </si>
 </sst>
 </file>
@@ -191,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -203,6 +206,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,15 +549,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="17" max="17" width="16.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,8 +606,11 @@
       <c r="P1" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="Q1" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -639,7 +651,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -680,7 +692,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -721,7 +733,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -762,7 +774,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -803,7 +815,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -844,7 +856,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -863,6 +875,10 @@
       <c r="P9" s="3">
         <f>1.5/O9*1000</f>
         <v>543.84358407521086</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>O9*617/1000</f>
+        <v>1.7017760751444444</v>
       </c>
     </row>
   </sheetData>
